--- a/codebase/extcore/jsp/document/cover/DMR.xlsx
+++ b/codebase/extcore/jsp/document/cover/DMR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60eebabad7dad888/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhkim\OneDrive\바탕 화면\원격\6. 루트로닉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_613A1E4A7153F3B70E21CEB0859E9AD01CB75536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56E87E7-FF63-43A6-B7BB-F05DCA61FFE9}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2535" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="2535" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +637,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;CLutronic Corporation</oddFooter>
+    <oddFooter>&amp;CLutronic Corporation&amp;RA4(210X297)</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/codebase/extcore/jsp/document/cover/DMR.xlsx
+++ b/codebase/extcore/jsp/document/cover/DMR.xlsx
@@ -178,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,14 +572,22 @@
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -628,9 +639,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
